--- a/ediscovery.xlsx
+++ b/ediscovery.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e9df7024655d293/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{1B389DBE-D780-41AD-8404-9EB805BA7BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE1C0C93-2EC8-4DE2-B796-B88F61816A97}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{1B389DBE-D780-41AD-8404-9EB805BA7BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91823C09-13F8-40D5-A286-680E84F93E67}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" xr2:uid="{4B138419-B089-4A2D-AC7B-61792F61BA22}"/>
   </bookViews>
   <sheets>
     <sheet name="Ediscovery commands" sheetId="1" r:id="rId1"/>
-    <sheet name="Ediscovery notes" sheetId="2" r:id="rId2"/>
-    <sheet name="Purview logs- GUI" sheetId="3" r:id="rId3"/>
+    <sheet name="Ediscovery settings" sheetId="4" r:id="rId2"/>
+    <sheet name="Ediscovery notes" sheetId="2" r:id="rId3"/>
+    <sheet name="Purview logs- GUI 4-29" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="175">
   <si>
     <t>Action type</t>
   </si>
@@ -506,19 +507,93 @@
   </si>
   <si>
     <t>{"AppAccessContext":{},"CreationTime":"2025-04-28T04:00:04","Id":"3402bb21-3e31-4cd4-3139-08dd8609285a","Operation":"Set-ConditionalAccessPolicy","OrganizationId":"9032cb4d-6b4c-4378-a4a5-7b1ab7377c19","RecordType":1,"ResultStatus":"True","UserKey":"NT SERVICE\\MSExchangeServiceHostNetCore (Microsoft.Exchange.ServiceHost)","UserType":3,"Version":1,"Workload":"Exchange","ObjectId":"domain.onmicrosoft.com\\6da09f7f-7ebf-44c2-85fc-e7924d4a61e3","UserId":"NT SERVICE\\MSExchangeServiceHostNetCore (Microsoft.Exchange.ServiceHost)","AppId":"","AppPoolName":"MSExchangeServiceHostNetCore","ClientAppId":"","CorrelationID":"","ExternalAccess":true,"OrganizationName":"domain.onmicrosoft.com","OriginatingServer":"DM6PR17MB2203 (15.20.8678.027)","Parameters":[{"Name":"Identity","Value":"domain.onmicrosoft.com\\6da09f7f-7ebf-44c2-85fc-e7924d4a61e3"},{"Name":"PolicyDetails","Value":"{\"Version\":0,\"State\":\"Disabled\",\"Conditions\":{\"Applications\":{\"Include\":[{\"Applications\":[\"00000003-0000-0ff1-ce00-000000000000\"]}]},\"Users\":{\"Include\":[{\"Users\":[\"All\"]}]},\"ClientTypes\":{\"Include\":[{\"ClientTypes\":[\"Browser\"]}]}},\"SessionControls\":[\"AppEnforcedRestrictions\"]}"},{"Name":"PolicyLastUpdatedTime","Value":"4\/28\/2025 4:00:04 AM"},{"Name":"TenantDefaultPolicy","Value":""},{"Name":"DisplayName","Value":"[SharePoint admin center]Use app-enforced Restrictions for browser access - 2023\/01\/24"},{"Name":"PolicyIdentifierString","Value":""}],"RequestId":"fa3bb024-8b3d-4f3b-902c-0930508e0347"}</t>
+  </si>
+  <si>
+    <t>https://purview.microsoft.com/settings/application-settings/ediscovery</t>
+  </si>
+  <si>
+    <t>Added user to ediscovery manager and ediscovery administrator role group</t>
+  </si>
+  <si>
+    <t>FNU LNU</t>
+  </si>
+  <si>
+    <t>Collections- Adding additional locations (Guest mailboxes, shared teams channels, departed users, group mailboxes)</t>
+  </si>
+  <si>
+    <t>Collections- Retrieval- All document versions, partially indexed items</t>
+  </si>
+  <si>
+    <t>Guest Access- enabled</t>
+  </si>
+  <si>
+    <t>Attorney-client privilege- enabled</t>
+  </si>
+  <si>
+    <t>Historical versions- enabled</t>
+  </si>
+  <si>
+    <t>Get-eDiscoveryCaseAdmin</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>PS C:\WINDOWS\system32&gt; Get-eDiscoveryCaseAdmin
+Name    RecipientType
+----    -------------
+FNU LNU MailUser</t>
+  </si>
+  <si>
+    <t>New standard ediscovery case</t>
+  </si>
+  <si>
+    <t>New-ComplianceCase -Name "Fabrikam Litigation"</t>
+  </si>
+  <si>
+    <t>new premium ediscovery case</t>
+  </si>
+  <si>
+    <t>Write-ErrorMessage : |Microsoft.Exchange.Management.Tasks.ComplianceCaseTaskException|Unable to execute the task.
+Reason: Error - invalid license
+ Please check with your administrator to ensure that your organization has the appropriate licenses to use Advanced
+eDiscovery. Click here to sign up for Microsoft 365 E5 Compliance trial. (https://aka.ms/M365E5ComplianceTrial)
+1:1189 char:13
++             Write-ErrorMessage $ErrorObject
++             ~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+    + CategoryInfo          : NotSpecified: (:) [New-ComplianceCase], ComplianceCaseTaskException
+    + FullyQualifiedErrorId : [RequestId=,TimeStamp=Tue, 06 May 2025 14:45:53 GMT]
+   ,Write-ErrorMessage</t>
+  </si>
+  <si>
+    <t>Update ediscovery case</t>
+  </si>
+  <si>
+    <t>Set-ComplianceCase -Identity "Fabrikam Litigation" -Description "For details, contact the Laura at the Contoso law firm" -ExternalId "Case number: 03092020"</t>
+  </si>
+  <si>
+    <t>Update-eDiscoveryCaseAdmin -Users adelev@colonelerror.onmicrosoft.com, lg@colonelerror.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>Update ediscovery case admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -547,12 +622,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,23 +993,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D22D1-AA05-4ABE-9E87-42C30CD439C0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="47.26171875" customWidth="1"/>
-    <col min="2" max="2" width="31.41796875" customWidth="1"/>
+    <col min="2" max="2" width="42.15625" customWidth="1"/>
     <col min="3" max="3" width="8.15625" customWidth="1"/>
     <col min="4" max="4" width="6.83984375" customWidth="1"/>
-    <col min="6" max="6" width="60.578125" customWidth="1"/>
-    <col min="7" max="7" width="31.41796875" customWidth="1"/>
+    <col min="6" max="6" width="50.20703125" customWidth="1"/>
+    <col min="7" max="7" width="105.7890625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -945,11 +1028,11 @@
       <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -969,7 +1052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1006,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1062,50 +1145,243 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.44513888888888886</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.6">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="144">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8704983-0649-4B4C-AA15-A2BB1BCF5A0F}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5119FC04-8458-4E73-B907-63367749E233}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="24.68359375" customWidth="1"/>
+    <col min="1" max="1" width="53.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.43819444444444444</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1114,14 +1390,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8704983-0649-4B4C-AA15-A2BB1BCF5A0F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="24.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07907F87-8E60-47A0-80EB-8A3A17C7C9B7}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38.26171875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.15625" bestFit="1" customWidth="1"/>
@@ -1134,7 +1452,7 @@
     <col min="9" max="10" width="11.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1166,7 +1484,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1186,7 +1504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1206,7 +1524,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1226,7 +1544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1246,7 +1564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1266,7 +1584,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1286,7 +1604,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1306,7 +1624,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1326,7 +1644,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1346,7 +1664,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1366,7 +1684,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1386,7 +1704,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1406,7 +1724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1426,7 +1744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1446,7 +1764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1466,7 +1784,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1486,7 +1804,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -1506,7 +1824,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1526,7 +1844,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -1546,7 +1864,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1566,7 +1884,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1586,7 +1904,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1606,7 +1924,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -1626,7 +1944,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -1646,7 +1964,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1666,7 +1984,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -1686,7 +2004,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
@@ -1706,7 +2024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -1726,7 +2044,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -1746,7 +2064,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -1766,7 +2084,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -1786,7 +2104,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -1806,7 +2124,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -1826,7 +2144,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -1846,7 +2164,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -1866,7 +2184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -1886,7 +2204,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -1906,7 +2224,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -1926,7 +2244,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>113</v>
       </c>
